--- a/prof_CTC.xlsx
+++ b/prof_CTC.xlsx
@@ -2725,14 +2725,14 @@
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -3373,14 +3373,14 @@
   </sheetPr>
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -4323,7 +4323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.09"/>
@@ -4705,7 +4705,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
@@ -6602,10 +6602,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -8009,7 +8009,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -8517,7 +8517,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
